--- a/eg_data/NHANES/PF/10_KCAL means.xlsx
+++ b/eg_data/NHANES/PF/10_KCAL means.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093B7BE2-0D7B-4D90-AE6E-971988C66407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205CE996-4E1E-46AD-83DF-540319FE1883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="-3180" windowWidth="16920" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KCAL" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="47">
   <si>
     <t>Plain means</t>
   </si>
@@ -120,9 +120,6 @@
     <t>All terms are significant.</t>
   </si>
   <si>
-    <t xml:space="preserve">DivGroup is not significant. This means the KCAL intake is the same when adjusted for the total protein intake? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Should we adjust by protein? </t>
   </si>
   <si>
@@ -156,23 +153,42 @@
     <t>High_15</t>
   </si>
   <si>
-    <t>upward</t>
+    <t>DivGroup only</t>
   </si>
   <si>
-    <t>stable</t>
+    <t>lm.kcal.div &lt;-    lm( KCAL ~ DivGroup , data=df)</t>
   </si>
   <si>
-    <t>down-stable</t>
+    <t>DivGroup has an effect (p=9.7x10-11)</t>
   </si>
   <si>
-    <t>zigzag</t>
+    <t>contrasts.p.value</t>
+  </si>
+  <si>
+    <t>PF_TOTAL_LEG is different among DivGroups (p&lt; 2.2e-16 ***)</t>
+  </si>
+  <si>
+    <t>DivGroup is not significant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This means the KCAL intake is the same when adjusted for the total protein intake? </t>
+  </si>
+  <si>
+    <t>DivNA-Div2</t>
+  </si>
+  <si>
+    <t>margins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +206,13 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -268,6 +291,25 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,11 +817,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -867,9 +905,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -953,11 +989,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -971,7 +1003,7 @@
                   <a:shade val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:shade val="65000"/>
@@ -1327,11 +1359,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1419,9 +1447,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1505,11 +1531,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3408,16 +3430,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>178377</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142402</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>28173</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300575</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>151709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3440,8 +3462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5153025" y="10715625"/>
-          <a:ext cx="3780952" cy="3219048"/>
+          <a:off x="6166427" y="14077661"/>
+          <a:ext cx="3779798" cy="3219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3452,16 +3474,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472787</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>37234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>199562</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>94861</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519949</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>103520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3484,8 +3506,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5286375" y="5934075"/>
-          <a:ext cx="3704762" cy="3114286"/>
+          <a:off x="7036378" y="9562234"/>
+          <a:ext cx="3683980" cy="3114286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3537,16 +3559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3573,16 +3595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3611,16 +3633,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3635,7 +3657,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6496050" y="3590925"/>
+          <a:off x="7477125" y="3562350"/>
           <a:ext cx="2514600" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3696,16 +3718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3720,7 +3742,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6381750" y="6657975"/>
+          <a:off x="7496175" y="6705600"/>
           <a:ext cx="2514600" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4045,23 +4067,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4069,7 +4092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4077,7 +4100,7 @@
         <v>1946.90680914513</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4085,7 +4108,7 @@
         <v>2020.3699839486401</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4093,975 +4116,1354 @@
         <v>2117.6524547803601</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>2192.27608142494</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="22">
+        <f>B3-B6</f>
+        <v>-245.36927227981005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
-        <v>1942.11722556206</v>
-      </c>
-      <c r="D14" s="2">
-        <v>14.7617609357041</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4032</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1900.6576390207399</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1983.57681210338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>1946.90680914512</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15.993169347206001</v>
+      </c>
+      <c r="E13">
+        <v>4034</v>
+      </c>
+      <c r="F13">
+        <v>1901.98872583302</v>
+      </c>
+      <c r="G13">
+        <v>1991.8248924572299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2020.3699839486301</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20.323078886186199</v>
+      </c>
+      <c r="E14">
+        <v>4034</v>
+      </c>
+      <c r="F14">
+        <v>1963.2910066208699</v>
+      </c>
+      <c r="G14">
+        <v>2077.44896127639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>2048.59751502164</v>
-      </c>
-      <c r="D15">
-        <v>18.767993820832899</v>
+        <v>2117.6524547803601</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36.466412606502999</v>
       </c>
       <c r="E15">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="F15">
-        <v>1995.8861029204099</v>
+        <v>2015.23364560051</v>
       </c>
       <c r="G15">
-        <v>2101.30892712288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2220.0712639602102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>2154.1868715365699</v>
-      </c>
-      <c r="D16">
-        <v>33.645890780437</v>
+        <v>2192.27608142493</v>
+      </c>
+      <c r="D16" s="1">
+        <v>36.186972376621299</v>
       </c>
       <c r="E16">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="F16">
-        <v>2059.6896955799102</v>
+        <v>2090.64210227183</v>
       </c>
       <c r="G16">
-        <v>2248.6840474932201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
+        <v>2293.91006057802</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
-        <v>2229.2248580810701</v>
-      </c>
-      <c r="D17" s="3">
-        <v>33.3925324037371</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4032</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2135.4392593942598</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2323.01045676788</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-73.463174803507002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>25.861341828732499</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4034</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-146.09680242333499</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.82954718367889801</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2.3427524633697301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>-106.48028945958301</v>
-      </c>
-      <c r="D18">
-        <v>23.895061920935898</v>
+        <v>-170.74564563523899</v>
+      </c>
+      <c r="D18" s="1">
+        <v>39.819351001192203</v>
       </c>
       <c r="E18">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="F18">
-        <v>-173.591482489751</v>
+        <v>-282.581447962808</v>
       </c>
       <c r="G18">
-        <v>-39.369096429414903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-58.909843307669298</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1.08567524906178E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1">
-        <v>-212.06964597450599</v>
-      </c>
-      <c r="D19">
-        <v>36.750906316147798</v>
+      <c r="B19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="24">
+        <v>-245.36927227980499</v>
+      </c>
+      <c r="D19" s="1">
+        <v>39.563599881137698</v>
       </c>
       <c r="E19">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="F19">
-        <v>-315.28750646708102</v>
+        <v>-356.486777322553</v>
       </c>
       <c r="G19">
-        <v>-108.85178548192999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-134.25176723705599</v>
+      </c>
+      <c r="H19" s="25">
+        <v>3.0790360261434597E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>-287.10763251901199</v>
-      </c>
-      <c r="D20">
-        <v>36.526178083994701</v>
+        <v>-97.282470831731601</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41.747176956075201</v>
       </c>
       <c r="E20">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="F20">
-        <v>-389.69432579313599</v>
+        <v>-214.53272510267399</v>
       </c>
       <c r="G20">
-        <v>-184.52093924488801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19.9677834392104</v>
+      </c>
+      <c r="H20" s="20">
+        <v>9.1395216990704201E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-171.90609747629799</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41.503307159797401</v>
+      </c>
+      <c r="E21">
+        <v>4034</v>
+      </c>
+      <c r="F21">
+        <v>-288.47142410164901</v>
+      </c>
+      <c r="G21">
+        <v>-55.340770850946001</v>
+      </c>
+      <c r="H21" s="20">
+        <v>2.05685917466281E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-74.623626644566002</v>
+      </c>
+      <c r="D22" s="4">
+        <v>51.374081190558101</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4034</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-218.91180423479699</v>
+      </c>
+      <c r="G22" s="3">
+        <v>69.664550945664601</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.46658178065221001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1942.11722556206</v>
+      </c>
+      <c r="D32" s="2">
+        <v>14.7617609357041</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4032</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1900.6576390207399</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1983.57681210338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2048.59751502164</v>
+      </c>
+      <c r="D33">
+        <v>18.767993820832899</v>
+      </c>
+      <c r="E33">
+        <v>4032</v>
+      </c>
+      <c r="F33">
+        <v>1995.8861029204099</v>
+      </c>
+      <c r="G33">
+        <v>2101.30892712288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2154.1868715365699</v>
+      </c>
+      <c r="D34">
+        <v>33.645890780437</v>
+      </c>
+      <c r="E34">
+        <v>4032</v>
+      </c>
+      <c r="F34">
+        <v>2059.6896955799102</v>
+      </c>
+      <c r="G34">
+        <v>2248.6840474932201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2229.2248580810701</v>
+      </c>
+      <c r="D35" s="3">
+        <v>33.3925324037371</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4032</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2135.4392593942598</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2323.01045676788</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-106.48028945958301</v>
+      </c>
+      <c r="D36">
+        <v>23.895061920935898</v>
+      </c>
+      <c r="E36">
+        <v>4032</v>
+      </c>
+      <c r="F36">
+        <v>-173.591482489751</v>
+      </c>
+      <c r="G36">
+        <v>-39.369096429414903</v>
+      </c>
+      <c r="H36" s="18">
+        <v>5.0683059001022102E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-212.06964597450599</v>
+      </c>
+      <c r="D37">
+        <v>36.750906316147798</v>
+      </c>
+      <c r="E37">
+        <v>4032</v>
+      </c>
+      <c r="F37">
+        <v>-315.28750646708102</v>
+      </c>
+      <c r="G37">
+        <v>-108.85178548192999</v>
+      </c>
+      <c r="H37" s="17">
+        <v>7.7925693231506404E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="24">
+        <v>-287.10763251901199</v>
+      </c>
+      <c r="D38">
+        <v>36.526178083994701</v>
+      </c>
+      <c r="E38">
+        <v>4032</v>
+      </c>
+      <c r="F38">
+        <v>-389.69432579313599</v>
+      </c>
+      <c r="G38">
+        <v>-184.52093924488801</v>
+      </c>
+      <c r="H38" s="26">
+        <v>2.6998179913917401E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C39" s="1">
         <v>-105.589356514923</v>
       </c>
-      <c r="D21">
+      <c r="D39">
         <v>38.487842971911903</v>
       </c>
-      <c r="E21">
+      <c r="E39">
         <v>4032</v>
       </c>
-      <c r="F21">
+      <c r="F39">
         <v>-213.68554256161701</v>
       </c>
-      <c r="G21">
+      <c r="G39">
         <v>2.5068295317714302</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="H39">
+        <v>3.1051523938158802E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C40" s="1">
         <v>-180.62734305942899</v>
       </c>
-      <c r="D22">
+      <c r="D40">
         <v>38.263103149012899</v>
       </c>
-      <c r="E22">
+      <c r="E40">
         <v>4032</v>
       </c>
-      <c r="F22">
+      <c r="F40">
         <v>-288.092329334135</v>
       </c>
-      <c r="G22">
+      <c r="G40">
         <v>-73.162356784722903</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="H40" s="17">
+        <v>1.4470372179609099E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C41" s="4">
         <v>-75.037986544505998</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D41" s="3">
         <v>47.362433190379001</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E41" s="3">
         <v>4032</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F41" s="3">
         <v>-208.059169194509</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G41" s="3">
         <v>57.983196105497299</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="H41" s="3">
+        <v>0.38767172019629598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B44" s="6">
         <v>1942.11722556206</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B45" s="1">
         <v>2048.59751502164</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B46" s="1">
         <v>2154.1868715365699</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B47" s="4">
         <v>2229.2248580810701</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>1</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C54" s="1">
         <v>2087.8871498624799</v>
       </c>
-      <c r="D36">
+      <c r="D54">
         <v>13.235863761361299</v>
       </c>
-      <c r="E36">
+      <c r="E54">
         <v>4031</v>
       </c>
-      <c r="F36">
+      <c r="F54">
         <v>2050.7131625286902</v>
       </c>
-      <c r="G36">
+      <c r="G54">
         <v>2125.06113719627</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>2</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B55" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C55" s="1">
         <v>2004.3659684363099</v>
       </c>
-      <c r="D37">
+      <c r="D55">
         <v>16.147787403079899</v>
       </c>
-      <c r="E37">
+      <c r="E55">
         <v>4031</v>
       </c>
-      <c r="F37">
+      <c r="F55">
         <v>1959.0136094808499</v>
       </c>
-      <c r="G37">
+      <c r="G55">
         <v>2049.7183273917699</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>3</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C56" s="1">
         <v>1900.13904416111</v>
       </c>
-      <c r="D38">
+      <c r="D56">
         <v>29.6371087599438</v>
       </c>
-      <c r="E38">
+      <c r="E56">
         <v>4031</v>
       </c>
-      <c r="F38">
+      <c r="F56">
         <v>1816.90084184079</v>
       </c>
-      <c r="G38">
+      <c r="G56">
         <v>1983.3772464814199</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>4</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C57" s="1">
         <v>1837.08220280879</v>
       </c>
-      <c r="D39">
+      <c r="D57">
         <v>30.457235594758998</v>
       </c>
-      <c r="E39">
+      <c r="E57">
         <v>4031</v>
       </c>
-      <c r="F39">
+      <c r="F57">
         <v>1751.5406083472999</v>
       </c>
-      <c r="G39">
+      <c r="G57">
         <v>1922.62379727028</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C58" s="6">
         <v>83.521181426170102</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D58" s="2">
         <v>21.106340013282399</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E58" s="2">
         <v>4031</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F58" s="2">
         <v>24.242328873539101</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G58" s="2">
         <v>142.800033978801</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="H58" s="2">
+        <v>4.4799056338940002E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>13</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C59" s="1">
         <v>187.74810570137299</v>
       </c>
-      <c r="D41">
+      <c r="D59">
         <v>33.246506248796301</v>
       </c>
-      <c r="E41">
+      <c r="E59">
         <v>4031</v>
       </c>
-      <c r="F41">
+      <c r="F59">
         <v>94.372620393532998</v>
       </c>
-      <c r="G41">
+      <c r="G59">
         <v>281.12359100921299</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="H59" s="17">
+        <v>1.3137921450745401E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>13</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B60" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C60" s="24">
         <v>250.80494705369</v>
       </c>
-      <c r="D42">
+      <c r="D60">
         <v>34.392950937557998</v>
       </c>
-      <c r="E42">
+      <c r="E60">
         <v>4031</v>
       </c>
-      <c r="F42">
+      <c r="F60">
         <v>154.209579680931</v>
       </c>
-      <c r="G42">
+      <c r="G60">
         <v>347.40031442644897</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="H60" s="26">
+        <v>2.6942442499233701E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>13</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B61" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C61" s="1">
         <v>104.226924275203</v>
       </c>
-      <c r="D43">
+      <c r="D61">
         <v>33.4867132837581</v>
       </c>
-      <c r="E43">
+      <c r="E61">
         <v>4031</v>
       </c>
-      <c r="F43">
+      <c r="F61">
         <v>10.176798200718901</v>
       </c>
-      <c r="G43">
+      <c r="G61">
         <v>198.27705034968699</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="H61">
+        <v>1.00886229081495E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>13</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B62" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C62" s="1">
         <v>167.28376562752001</v>
       </c>
-      <c r="D44">
+      <c r="D62">
         <v>34.087988099350703</v>
       </c>
-      <c r="E44">
+      <c r="E62">
         <v>4031</v>
       </c>
-      <c r="F44">
+      <c r="F62">
         <v>71.544910900190501</v>
       </c>
-      <c r="G44">
+      <c r="G62">
         <v>263.02262035484898</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="H62" s="17">
+        <v>5.7430303856964596E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C63" s="4">
         <v>63.056841352316802</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D63" s="3">
         <v>40.806276951399298</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E63" s="3">
         <v>4031</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F63" s="3">
         <v>-51.550867663152701</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G63" s="3">
         <v>177.66455036778601</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="H63" s="3">
+        <v>0.41047110812800303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B66" s="6">
         <v>2087.8871498624799</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B67" s="1">
         <v>2004.3659684363099</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B68" s="1">
         <v>1900.13904416111</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B69" s="4">
         <v>1837.08220280879</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="71" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="12">
+        <v>2023.6512577108001</v>
+      </c>
+      <c r="D76" s="12">
+        <v>13.312672530669699</v>
+      </c>
+      <c r="E76" s="7">
+        <v>4031</v>
+      </c>
+      <c r="F76" s="7">
+        <v>1986.26154677417</v>
+      </c>
+      <c r="G76" s="7">
+        <v>2061.04096864744</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="12">
+        <v>2007.2061990331099</v>
+      </c>
+      <c r="D77" s="12">
+        <v>16.681597298133099</v>
+      </c>
+      <c r="E77" s="7">
+        <v>4031</v>
+      </c>
+      <c r="F77" s="7">
+        <v>1960.3545920772799</v>
+      </c>
+      <c r="G77" s="7">
+        <v>2054.0578059889399</v>
+      </c>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="12">
+        <v>2010.23519088679</v>
+      </c>
+      <c r="D78" s="12">
+        <v>30.135657136313601</v>
+      </c>
+      <c r="E78" s="7">
+        <v>4031</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1925.59677537581</v>
+      </c>
+      <c r="G78" s="7">
+        <v>2094.8736063977599</v>
+      </c>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="12">
+        <v>2036.9547450669399</v>
+      </c>
+      <c r="D79" s="12">
+        <v>30.159001089939402</v>
+      </c>
+      <c r="E79" s="7">
+        <v>4031</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1952.2507661857101</v>
+      </c>
+      <c r="G79" s="7">
+        <v>2121.6587239481701</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="11">
+        <v>16.445058677692799</v>
+      </c>
+      <c r="D80" s="11">
+        <v>21.500721176819798</v>
+      </c>
+      <c r="E80" s="10">
+        <v>4031</v>
+      </c>
+      <c r="F80" s="10">
+        <v>-43.941445074916999</v>
+      </c>
+      <c r="G80" s="10">
+        <v>76.831562430302696</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0.87026972953427195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="12">
+        <v>13.416066824019399</v>
+      </c>
+      <c r="D81" s="12">
+        <v>33.275038319805503</v>
+      </c>
+      <c r="E81" s="7">
+        <v>4031</v>
+      </c>
+      <c r="F81" s="7">
+        <v>-80.039553098789995</v>
+      </c>
+      <c r="G81" s="7">
+        <v>106.871686746829</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0.97783918429210603</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="12">
+        <v>-13.3034873561321</v>
+      </c>
+      <c r="D82" s="12">
+        <v>33.409523750049402</v>
+      </c>
+      <c r="E82" s="7">
+        <v>4031</v>
+      </c>
+      <c r="F82" s="7">
+        <v>-107.136820420343</v>
+      </c>
+      <c r="G82" s="7">
+        <v>80.529845708078497</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0.97862062160394403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="12">
+        <v>-3.0289918536734399</v>
+      </c>
+      <c r="D83" s="12">
+        <v>34.253182204892802</v>
+      </c>
+      <c r="E83" s="7">
+        <v>4031</v>
+      </c>
+      <c r="F83" s="7">
+        <v>-99.231807505484397</v>
+      </c>
+      <c r="G83" s="7">
+        <v>93.173823798137505</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0.999752312876107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="12">
+        <v>-29.748546033824901</v>
+      </c>
+      <c r="D84" s="12">
+        <v>34.217664200848503</v>
+      </c>
+      <c r="E84" s="7">
+        <v>4031</v>
+      </c>
+      <c r="F84" s="7">
+        <v>-125.85160651617601</v>
+      </c>
+      <c r="G84" s="7">
+        <v>66.354514448526004</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0.82068932515662496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="14">
+        <v>-26.719554180151501</v>
+      </c>
+      <c r="D85" s="14">
+        <v>42.004667557479003</v>
+      </c>
+      <c r="E85" s="13">
+        <v>4031</v>
+      </c>
+      <c r="F85" s="13">
+        <v>-144.69303954498099</v>
+      </c>
+      <c r="G85" s="13">
+        <v>91.253931184677896</v>
+      </c>
+      <c r="H85" s="13">
+        <v>0.92036361348107498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="11">
+        <v>2023.6512577108001</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="12">
+        <v>2007.2061990331099</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="12">
+        <v>2010.23519088679</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="14">
+        <v>2036.9547450669399</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="7">
-        <v>2023.6512577108001</v>
-      </c>
-      <c r="D58" s="7">
-        <v>13.312672530669699</v>
-      </c>
-      <c r="E58" s="7">
-        <v>4031</v>
-      </c>
-      <c r="F58" s="7">
-        <v>1986.26154677417</v>
-      </c>
-      <c r="G58" s="7">
-        <v>2061.04096864744</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="7">
-        <v>2007.2061990331099</v>
-      </c>
-      <c r="D59" s="7">
-        <v>16.681597298133099</v>
-      </c>
-      <c r="E59" s="7">
-        <v>4031</v>
-      </c>
-      <c r="F59" s="7">
-        <v>1960.3545920772799</v>
-      </c>
-      <c r="G59" s="7">
-        <v>2054.0578059889399</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="7">
-        <v>2010.23519088679</v>
-      </c>
-      <c r="D60" s="7">
-        <v>30.135657136313601</v>
-      </c>
-      <c r="E60" s="7">
-        <v>4031</v>
-      </c>
-      <c r="F60" s="7">
-        <v>1925.59677537581</v>
-      </c>
-      <c r="G60" s="7">
-        <v>2094.8736063977599</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="7">
-        <v>2036.9547450669399</v>
-      </c>
-      <c r="D61" s="7">
-        <v>30.159001089939402</v>
-      </c>
-      <c r="E61" s="7">
-        <v>4031</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1952.2507661857101</v>
-      </c>
-      <c r="G61" s="7">
-        <v>2121.6587239481701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="10">
-        <v>16.445058677692799</v>
-      </c>
-      <c r="D62" s="10">
-        <v>21.500721176819798</v>
-      </c>
-      <c r="E62" s="10">
-        <v>4031</v>
-      </c>
-      <c r="F62" s="10">
-        <v>-43.941445074916999</v>
-      </c>
-      <c r="G62" s="10">
-        <v>76.831562430302696</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="7">
-        <v>13.416066824019399</v>
-      </c>
-      <c r="D63" s="7">
-        <v>33.275038319805503</v>
-      </c>
-      <c r="E63" s="7">
-        <v>4031</v>
-      </c>
-      <c r="F63" s="7">
-        <v>-80.039553098789995</v>
-      </c>
-      <c r="G63" s="7">
-        <v>106.871686746829</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="7">
-        <v>-13.3034873561321</v>
-      </c>
-      <c r="D64" s="7">
-        <v>33.409523750049402</v>
-      </c>
-      <c r="E64" s="7">
-        <v>4031</v>
-      </c>
-      <c r="F64" s="7">
-        <v>-107.136820420343</v>
-      </c>
-      <c r="G64" s="7">
-        <v>80.529845708078497</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="7">
-        <v>-3.0289918536734399</v>
-      </c>
-      <c r="D65" s="7">
-        <v>34.253182204892802</v>
-      </c>
-      <c r="E65" s="7">
-        <v>4031</v>
-      </c>
-      <c r="F65" s="7">
-        <v>-99.231807505484397</v>
-      </c>
-      <c r="G65" s="7">
-        <v>93.173823798137505</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="7">
-        <v>-29.748546033824901</v>
-      </c>
-      <c r="D66" s="7">
-        <v>34.217664200848503</v>
-      </c>
-      <c r="E66" s="7">
-        <v>4031</v>
-      </c>
-      <c r="F66" s="7">
-        <v>-125.85160651617601</v>
-      </c>
-      <c r="G66" s="7">
-        <v>66.354514448526004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="13">
-        <v>-26.719554180151501</v>
-      </c>
-      <c r="D67" s="13">
-        <v>42.004667557479003</v>
-      </c>
-      <c r="E67" s="13">
-        <v>4031</v>
-      </c>
-      <c r="F67" s="13">
-        <v>-144.69303954498099</v>
-      </c>
-      <c r="G67" s="13">
-        <v>91.253931184677896</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="11">
-        <v>2023.6512577108001</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="12">
-        <v>2007.2061990331099</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="12">
-        <v>2010.23519088679</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="14">
-        <v>2036.9547450669399</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5073,10 +5475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F2FA67-EC19-4424-8F70-1DC3E066EC3F}">
-  <dimension ref="A2:D41"/>
+  <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5090,10 +5492,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5140,202 +5542,260 @@
         <v>1945.1589861751199</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="27">
         <v>1639.8886618998999</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="27">
         <v>2118.5385985748198</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="27">
         <v>2763.9581151832499</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="27">
+        <f>AVERAGE(B20:D20)</f>
+        <v>2174.1284585526569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="27">
         <v>1609.6092105263201</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="27">
         <v>2054.6310077519402</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="27">
         <v>2626.6628959275999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="27">
+        <f t="shared" ref="E21:E23" si="0">AVERAGE(B21:D21)</f>
+        <v>2096.9677047352866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="27">
         <v>1651.5246913580199</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="27">
         <v>2059.9134615384601</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="27">
         <v>2625.4693877550999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>2112.3025135505268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="27">
         <v>1723.0487804878001</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="27">
         <v>2080.9453551912602</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="27">
         <v>2652.04296875</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
+      <c r="E23" s="27">
+        <f t="shared" si="0"/>
+        <v>2152.01236814302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="28">
+        <f>AVERAGE(B20:B23)</f>
+        <v>1656.01783606801</v>
+      </c>
+      <c r="C24" s="28">
+        <f>AVERAGE(C20:C23)</f>
+        <v>2078.5071057641198</v>
+      </c>
+      <c r="D24" s="28">
+        <f>AVERAGE(D20:D23)</f>
+        <v>2667.0333419039875</v>
+      </c>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1">
         <f>B20-B23</f>
         <v>-83.160118587900115</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <f>C20-C23</f>
         <v>37.593243383559638</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <f>D20-D23</f>
         <v>111.9151464332499</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="27">
         <v>1503.0496000000001</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="27">
         <v>2013.0852749301</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="27">
         <v>2604.23566878981</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="27">
+        <f>AVERAGE(B36:D36)</f>
+        <v>2040.1235145733033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="27">
         <v>1375.6054216867501</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="27">
         <v>1884.6076335877899</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="27">
         <v>2481.4411764705901</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="27">
+        <f t="shared" ref="E37:E39" si="1">AVERAGE(B37:D37)</f>
+        <v>1913.8847439150434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="27">
         <v>1505.6363636363601</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="27">
         <v>1886.4111842105301</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="27">
         <v>2345.8826291079799</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="27">
+        <f t="shared" si="1"/>
+        <v>1912.6433923182901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="27">
         <v>1446.9375</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="27">
         <v>1766.0871559632999</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="27">
         <v>2382.19384057971</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
+      <c r="E39" s="27">
+        <f t="shared" si="1"/>
+        <v>1865.0728321810032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="28">
+        <f>AVERAGE(B36:B39)</f>
+        <v>1457.8072213307776</v>
+      </c>
+      <c r="C40" s="28">
+        <f>AVERAGE(C36:C39)</f>
+        <v>1887.54781217293</v>
+      </c>
+      <c r="D40" s="28">
+        <f>AVERAGE(D36:D39)</f>
+        <v>2453.4383287370224</v>
+      </c>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1">
         <f>B36-B39</f>
         <v>56.112100000000055</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <f>C36-C39</f>
         <v>246.99811896680012</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <f>D36-D39</f>
         <v>222.04182821009999</v>
       </c>

--- a/eg_data/NHANES/PF/10_KCAL means.xlsx
+++ b/eg_data/NHANES/PF/10_KCAL means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205CE996-4E1E-46AD-83DF-540319FE1883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DC8558-A528-4BFE-A5D6-8C4BABAFFCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31605" yWindow="-3105" windowWidth="17175" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCAL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="59">
   <si>
     <t>Plain means</t>
   </si>
@@ -179,6 +179,42 @@
   <si>
     <t>margins</t>
   </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PF_Low</t>
+  </si>
+  <si>
+    <t>PF_Mid</t>
+  </si>
+  <si>
+    <t>PF_High</t>
+  </si>
+  <si>
+    <t>Total n</t>
+  </si>
+  <si>
+    <t>FIBE_Low</t>
+  </si>
+  <si>
+    <t>FIBE_Mid</t>
+  </si>
+  <si>
+    <t>FIBE_High</t>
+  </si>
+  <si>
+    <t>PF Mean &amp; SD</t>
+  </si>
+  <si>
+    <t>FIBE Mean &amp; SD</t>
+  </si>
+  <si>
+    <t>PF n</t>
+  </si>
+  <si>
+    <t>FIBE n</t>
+  </si>
 </sst>
 </file>
 
@@ -188,17 +224,10 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,6 +242,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -269,11 +329,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -290,17 +394,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,6 +413,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3633,16 +3787,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3657,7 +3811,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477125" y="3562350"/>
+          <a:off x="6057900" y="4114800"/>
           <a:ext cx="2514600" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3718,16 +3872,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3742,7 +3896,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7496175" y="6705600"/>
+          <a:off x="6096000" y="6638925"/>
           <a:ext cx="2514600" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4069,7 +4223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -4123,10 +4277,10 @@
       <c r="B6" s="4">
         <v>2192.27608142494</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <f>B3-B6</f>
         <v>-245.36927227981005</v>
       </c>
@@ -4286,7 +4440,7 @@
       <c r="G17" s="2">
         <v>-0.82954718367889801</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>2.3427524633697301E-2</v>
       </c>
     </row>
@@ -4312,7 +4466,7 @@
       <c r="G18">
         <v>-58.909843307669298</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <v>1.08567524906178E-4</v>
       </c>
     </row>
@@ -4320,10 +4474,10 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>-245.36927227980499</v>
       </c>
       <c r="D19" s="1">
@@ -4338,7 +4492,7 @@
       <c r="G19">
         <v>-134.25176723705599</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="24">
         <v>3.0790360261434597E-8</v>
       </c>
     </row>
@@ -4364,7 +4518,7 @@
       <c r="G20">
         <v>19.9677834392104</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>9.1395216990704201E-2</v>
       </c>
     </row>
@@ -4390,7 +4544,7 @@
       <c r="G21">
         <v>-55.340770850946001</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>2.05685917466281E-4</v>
       </c>
     </row>
@@ -4416,7 +4570,7 @@
       <c r="G22" s="3">
         <v>69.664550945664601</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>0.46658178065221001</v>
       </c>
     </row>
@@ -4575,7 +4729,7 @@
       <c r="G36">
         <v>-39.369096429414903</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="17">
         <v>5.0683059001022102E-5</v>
       </c>
     </row>
@@ -4601,7 +4755,7 @@
       <c r="G37">
         <v>-108.85178548192999</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="16">
         <v>7.7925693231506404E-8</v>
       </c>
     </row>
@@ -4609,10 +4763,10 @@
       <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <v>-287.10763251901199</v>
       </c>
       <c r="D38">
@@ -4627,7 +4781,7 @@
       <c r="G38">
         <v>-184.52093924488801</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="25">
         <v>2.6998179913917401E-8</v>
       </c>
     </row>
@@ -4679,7 +4833,7 @@
       <c r="G40">
         <v>-73.162356784722903</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <v>1.4470372179609099E-5</v>
       </c>
     </row>
@@ -4930,7 +5084,7 @@
       <c r="G59">
         <v>281.12359100921299</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="16">
         <v>1.3137921450745401E-7</v>
       </c>
     </row>
@@ -4938,10 +5092,10 @@
       <c r="A60" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="23">
         <v>250.80494705369</v>
       </c>
       <c r="D60">
@@ -4956,7 +5110,7 @@
       <c r="G60">
         <v>347.40031442644897</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="25">
         <v>2.6942442499233701E-8</v>
       </c>
     </row>
@@ -5008,7 +5162,7 @@
       <c r="G62">
         <v>263.02262035484898</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="16">
         <v>5.7430303856964596E-6</v>
       </c>
     </row>
@@ -5475,10 +5629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F2FA67-EC19-4424-8F70-1DC3E066EC3F}">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A2:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E40"/>
+    <sheetView topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18:X49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5542,12 +5696,19 @@
         <v>1945.1589861751199</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q18" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -5563,120 +5724,433 @@
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q19" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>1639.8886618998999</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>2118.5385985748198</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>2763.9581151832499</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <f>AVERAGE(B20:D20)</f>
         <v>2174.1284585526569</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q20" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="31">
+        <v>979</v>
+      </c>
+      <c r="S20" s="31">
+        <v>842</v>
+      </c>
+      <c r="T20" s="31">
+        <v>191</v>
+      </c>
+      <c r="U20" s="33">
+        <f>SUM(R20:T20)</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>1609.6092105263201</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>2054.6310077519402</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>2626.6628959275999</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <f t="shared" ref="E21:E23" si="0">AVERAGE(B21:D21)</f>
         <v>2096.9677047352866</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q21" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="31">
+        <v>380</v>
+      </c>
+      <c r="S21" s="31">
+        <v>645</v>
+      </c>
+      <c r="T21" s="31">
+        <v>221</v>
+      </c>
+      <c r="U21" s="33">
+        <f>SUM(R21:T21)</f>
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>1651.5246913580199</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>2059.9134615384601</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <v>2625.4693877550999</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <f t="shared" si="0"/>
         <v>2112.3025135505268</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q22" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="31">
+        <v>81</v>
+      </c>
+      <c r="S22" s="31">
+        <v>208</v>
+      </c>
+      <c r="T22" s="31">
+        <v>98</v>
+      </c>
+      <c r="U22" s="33">
+        <f>SUM(R22:T22)</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>1723.0487804878001</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>2080.9453551912602</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <v>2652.04296875</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <f t="shared" si="0"/>
         <v>2152.01236814302</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q23" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="31">
+        <v>82</v>
+      </c>
+      <c r="S23" s="31">
+        <v>183</v>
+      </c>
+      <c r="T23" s="31">
+        <v>128</v>
+      </c>
+      <c r="U23" s="33">
+        <f>SUM(R23:T23)</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <f>AVERAGE(B20:B23)</f>
         <v>1656.01783606801</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <f>AVERAGE(C20:C23)</f>
         <v>2078.5071057641198</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <f>AVERAGE(D20:D23)</f>
         <v>2667.0333419039875</v>
       </c>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="E24" s="28"/>
+      <c r="Q24" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" s="28">
+        <f>SUM(R20:R23)</f>
+        <v>1522</v>
+      </c>
+      <c r="S24" s="28">
+        <f>SUM(S20:S23)</f>
+        <v>1878</v>
+      </c>
+      <c r="T24" s="28">
+        <f>SUM(T20:T23)</f>
+        <v>638</v>
+      </c>
+      <c r="U24" s="32">
+        <f>SUM(R24:T24)</f>
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B25" s="1">
         <f>B20-B23</f>
         <v>-83.160118587900115</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C25" s="1">
         <f>C20-C23</f>
         <v>37.593243383559638</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D25" s="1">
         <f>D20-D23</f>
         <v>111.9151464332499</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q26" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="26">
+        <v>1639.8886618998999</v>
+      </c>
+      <c r="S28" s="41">
+        <v>591.397199961963</v>
+      </c>
+      <c r="T28" s="26">
+        <v>2118.5385985748198</v>
+      </c>
+      <c r="U28" s="41">
+        <v>658.82926106728303</v>
+      </c>
+      <c r="V28" s="26">
+        <v>2763.9581151832499</v>
+      </c>
+      <c r="W28" s="41">
+        <v>725.90744902654001</v>
+      </c>
+      <c r="X28" s="29">
+        <v>2174.1284585526569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="29">
+        <v>591.397199961963</v>
+      </c>
+      <c r="C29" s="29">
+        <v>658.82926106728303</v>
+      </c>
+      <c r="D29" s="29">
+        <v>725.90744902654001</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="26">
+        <v>1609.6092105263201</v>
+      </c>
+      <c r="S29" s="42">
+        <v>539.50434649644603</v>
+      </c>
+      <c r="T29" s="26">
+        <v>2054.6310077519402</v>
+      </c>
+      <c r="U29" s="42">
+        <v>613.94309612476502</v>
+      </c>
+      <c r="V29" s="26">
+        <v>2626.6628959275999</v>
+      </c>
+      <c r="W29" s="42">
+        <v>784.68583793349706</v>
+      </c>
+      <c r="X29" s="26">
+        <v>2096.9677047352866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="26">
+        <v>539.50434649644603</v>
+      </c>
+      <c r="C30" s="26">
+        <v>613.94309612476502</v>
+      </c>
+      <c r="D30" s="26">
+        <v>784.68583793349706</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" s="26">
+        <v>1651.5246913580199</v>
+      </c>
+      <c r="S30" s="42">
+        <v>473.812284172452</v>
+      </c>
+      <c r="T30" s="26">
+        <v>2059.9134615384601</v>
+      </c>
+      <c r="U30" s="42">
+        <v>597.54949845425801</v>
+      </c>
+      <c r="V30" s="26">
+        <v>2625.4693877550999</v>
+      </c>
+      <c r="W30" s="42">
+        <v>648.78815985868403</v>
+      </c>
+      <c r="X30" s="26">
+        <v>2112.3025135505268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="26">
+        <v>473.812284172452</v>
+      </c>
+      <c r="C31" s="26">
+        <v>597.54949845425801</v>
+      </c>
+      <c r="D31" s="26">
+        <v>648.78815985868403</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>4</v>
+      </c>
+      <c r="R31" s="26">
+        <v>1723.0487804878001</v>
+      </c>
+      <c r="S31" s="43">
+        <v>567.05994310352105</v>
+      </c>
+      <c r="T31" s="26">
+        <v>2080.9453551912602</v>
+      </c>
+      <c r="U31" s="43">
+        <v>573.88686068394202</v>
+      </c>
+      <c r="V31" s="26">
+        <v>2652.04296875</v>
+      </c>
+      <c r="W31" s="43">
+        <v>793.48390580343198</v>
+      </c>
+      <c r="X31" s="30">
+        <v>2152.01236814302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="30">
+        <v>567.05994310352105</v>
+      </c>
+      <c r="C32" s="30">
+        <v>573.88686068394202</v>
+      </c>
+      <c r="D32" s="30">
+        <v>793.48390580343198</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" s="27">
+        <v>1656.01783606801</v>
+      </c>
+      <c r="S32" s="44"/>
+      <c r="T32" s="27">
+        <v>2078.5071057641198</v>
+      </c>
+      <c r="U32" s="5"/>
+      <c r="V32" s="27">
+        <v>2667.0333419039875</v>
+      </c>
+      <c r="W32" s="45"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -5692,116 +6166,433 @@
       <c r="E35" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q35" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="26">
         <v>1503.0496000000001</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <v>2013.0852749301</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="26">
         <v>2604.23566878981</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <f>AVERAGE(B36:D36)</f>
         <v>2040.1235145733033</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="U36" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="26">
         <v>1375.6054216867501</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="26">
         <v>1884.6076335877899</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="26">
         <v>2481.4411764705901</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <f t="shared" ref="E37:E39" si="1">AVERAGE(B37:D37)</f>
         <v>1913.8847439150434</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" s="31">
+        <v>625</v>
+      </c>
+      <c r="S37" s="31">
+        <v>1073</v>
+      </c>
+      <c r="T37" s="31">
+        <v>314</v>
+      </c>
+      <c r="U37" s="31">
+        <f>SUM(R37:T37)</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <v>1505.6363636363601</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <v>1886.4111842105301</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <v>2345.8826291079799</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="1"/>
         <v>1912.6433923182901</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" s="31">
+        <v>166</v>
+      </c>
+      <c r="S38" s="31">
+        <v>655</v>
+      </c>
+      <c r="T38" s="31">
+        <v>425</v>
+      </c>
+      <c r="U38" s="31">
+        <f>SUM(R38:T38)</f>
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="26">
         <v>1446.9375</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="26">
         <v>1766.0871559632999</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="26">
         <v>2382.19384057971</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <f t="shared" si="1"/>
         <v>1865.0728321810032</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" s="31">
+        <v>22</v>
+      </c>
+      <c r="S39" s="31">
+        <v>152</v>
+      </c>
+      <c r="T39" s="31">
+        <v>213</v>
+      </c>
+      <c r="U39" s="31">
+        <f>SUM(R39:T39)</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="27">
         <f>AVERAGE(B36:B39)</f>
         <v>1457.8072213307776</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="27">
         <f>AVERAGE(C36:C39)</f>
         <v>1887.54781217293</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="27">
         <f>AVERAGE(D36:D39)</f>
         <v>2453.4383287370224</v>
       </c>
-      <c r="E40" s="29"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E40" s="28"/>
+      <c r="Q40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R40" s="31">
+        <v>8</v>
+      </c>
+      <c r="S40" s="31">
+        <v>109</v>
+      </c>
+      <c r="T40" s="31">
+        <v>276</v>
+      </c>
+      <c r="U40" s="31">
+        <f>SUM(R40:T40)</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B41" s="1">
         <f>B36-B39</f>
         <v>56.112100000000055</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C41" s="1">
         <f>C36-C39</f>
         <v>246.99811896680012</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D41" s="1">
         <f>D36-D39</f>
         <v>222.04182821009999</v>
       </c>
+      <c r="Q41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R41" s="28">
+        <f>SUM(R37:R40)</f>
+        <v>821</v>
+      </c>
+      <c r="S41" s="28">
+        <f>SUM(S37:S40)</f>
+        <v>1989</v>
+      </c>
+      <c r="T41" s="28">
+        <f>SUM(T37:T40)</f>
+        <v>1228</v>
+      </c>
+      <c r="U41" s="28">
+        <f>SUM(R41:T41)</f>
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U44" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W44" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="X44" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="29">
+        <v>546.62701807985297</v>
+      </c>
+      <c r="C45" s="29">
+        <v>632.05055409829004</v>
+      </c>
+      <c r="D45" s="29">
+        <v>744.73644170636805</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" s="26">
+        <v>1503.0496000000001</v>
+      </c>
+      <c r="S45" s="41">
+        <v>546.62701807985297</v>
+      </c>
+      <c r="T45" s="26">
+        <v>2013.0852749301</v>
+      </c>
+      <c r="U45" s="41">
+        <v>632.05055409829004</v>
+      </c>
+      <c r="V45" s="26">
+        <v>2604.23566878981</v>
+      </c>
+      <c r="W45" s="41">
+        <v>744.73644170636805</v>
+      </c>
+      <c r="X45" s="35">
+        <v>2040.1235145733033</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="26">
+        <v>424.852465694611</v>
+      </c>
+      <c r="C46" s="26">
+        <v>578.97421636357001</v>
+      </c>
+      <c r="D46" s="26">
+        <v>710.73789059397404</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" s="26">
+        <v>1375.6054216867501</v>
+      </c>
+      <c r="S46" s="42">
+        <v>424.852465694611</v>
+      </c>
+      <c r="T46" s="26">
+        <v>1884.6076335877899</v>
+      </c>
+      <c r="U46" s="42">
+        <v>578.97421636357001</v>
+      </c>
+      <c r="V46" s="26">
+        <v>2481.4411764705901</v>
+      </c>
+      <c r="W46" s="42">
+        <v>710.73789059397404</v>
+      </c>
+      <c r="X46" s="36">
+        <v>1913.8847439150434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="26">
+        <v>466.50399839602699</v>
+      </c>
+      <c r="C47" s="26">
+        <v>548.53658139850904</v>
+      </c>
+      <c r="D47" s="26">
+        <v>682.66574138518195</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="26">
+        <v>1505.6363636363601</v>
+      </c>
+      <c r="S47" s="42">
+        <v>466.50399839602699</v>
+      </c>
+      <c r="T47" s="26">
+        <v>1886.4111842105301</v>
+      </c>
+      <c r="U47" s="42">
+        <v>548.53658139850904</v>
+      </c>
+      <c r="V47" s="26">
+        <v>2345.8826291079799</v>
+      </c>
+      <c r="W47" s="42">
+        <v>682.66574138518195</v>
+      </c>
+      <c r="X47" s="36">
+        <v>1912.6433923182901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="30">
+        <v>434.77263659953798</v>
+      </c>
+      <c r="C48" s="30">
+        <v>495.22200803368003</v>
+      </c>
+      <c r="D48" s="30">
+        <v>741.79388801013704</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="26">
+        <v>1446.9375</v>
+      </c>
+      <c r="S48" s="43">
+        <v>434.77263659953798</v>
+      </c>
+      <c r="T48" s="26">
+        <v>1766.0871559632999</v>
+      </c>
+      <c r="U48" s="43">
+        <v>495.22200803368003</v>
+      </c>
+      <c r="V48" s="26">
+        <v>2382.19384057971</v>
+      </c>
+      <c r="W48" s="43">
+        <v>741.79388801013704</v>
+      </c>
+      <c r="X48" s="37">
+        <v>1865.0728321810032</v>
+      </c>
+    </row>
+    <row r="49" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R49" s="27">
+        <v>1457.8072213307776</v>
+      </c>
+      <c r="S49" s="44"/>
+      <c r="T49" s="27">
+        <v>1887.54781217293</v>
+      </c>
+      <c r="U49" s="44"/>
+      <c r="V49" s="27">
+        <v>2453.4383287370224</v>
+      </c>
+      <c r="W49" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/eg_data/NHANES/PF/10_KCAL means.xlsx
+++ b/eg_data/NHANES/PF/10_KCAL means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DC8558-A528-4BFE-A5D6-8C4BABAFFCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7F726-C7ED-4AE6-849A-348AD4A489BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31605" yWindow="-3105" windowWidth="17175" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32775" yWindow="-3270" windowWidth="15615" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCAL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="77">
   <si>
     <t>Plain means</t>
   </si>
@@ -214,6 +214,60 @@
   </si>
   <si>
     <t>FIBE n</t>
+  </si>
+  <si>
+    <t>DivGroup, Age, Gender, FIBE, PF</t>
+  </si>
+  <si>
+    <t>lm.kcal.agfp &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + FIBE + PF_TOTAL_LEG, data=df)</t>
+  </si>
+  <si>
+    <t>Sum Sq</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>F value</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>RIDAGEYR</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>All terms have an effect.</t>
+  </si>
+  <si>
+    <t>The more diverse, the less KCAL intake.</t>
+  </si>
+  <si>
+    <t>DivGroup, Age, Gender, FIBE/1000kcal, PF</t>
+  </si>
+  <si>
+    <t>FIBE1000kcal</t>
+  </si>
+  <si>
+    <t>lm.kcal.ag1000fp &lt;-    lm( KCAL ~ DivGroup + RIDAGEYR + Gender + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
+  </si>
+  <si>
+    <t>The more diverse, the more kcal intake!</t>
+  </si>
+  <si>
+    <t>When KCAL is the response, I don't quite understand the meaning of adjusting it by FiBE/1000kcal…?</t>
   </si>
 </sst>
 </file>
@@ -224,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +331,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -464,6 +530,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4221,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5618,6 +5693,861 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99">
+        <v>373179779.51554</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1398.0876964260401</v>
+      </c>
+      <c r="F99" s="16">
+        <v>5.8851966731691299E-263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>51910403.856978402</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>64.826035539908204</v>
+      </c>
+      <c r="F100" s="16">
+        <v>6.2428351805183905E-41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101">
+        <v>30579869.1270709</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>114.564992884605</v>
+      </c>
+      <c r="F101" s="16">
+        <v>2.2097303100334501E-26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102">
+        <v>63249633.913745403</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>236.959609904524</v>
+      </c>
+      <c r="F102" s="16">
+        <v>5.3210318097224899E-52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103">
+        <v>309367628.46933103</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1159.0206618294601</v>
+      </c>
+      <c r="F103" s="16">
+        <v>1.64805229437945E-223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104">
+        <v>222657032.56821701</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>834.16646571922297</v>
+      </c>
+      <c r="F104" s="16">
+        <v>7.0680972260306296E-167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105">
+        <v>1075693974.91453</v>
+      </c>
+      <c r="D105">
+        <v>4030</v>
+      </c>
+      <c r="E105" t="s">
+        <v>69</v>
+      </c>
+      <c r="F105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2128.4662666589502</v>
+      </c>
+      <c r="D108" s="1">
+        <v>12.130735506751799</v>
+      </c>
+      <c r="E108">
+        <v>4030</v>
+      </c>
+      <c r="F108" s="16">
+        <v>2094.3961162056899</v>
+      </c>
+      <c r="G108">
+        <v>2162.5364171122101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1978.9337204506101</v>
+      </c>
+      <c r="D109" s="1">
+        <v>14.726278107830099</v>
+      </c>
+      <c r="E109">
+        <v>4030</v>
+      </c>
+      <c r="F109" s="16">
+        <v>1937.5737789638699</v>
+      </c>
+      <c r="G109">
+        <v>2020.29366193735</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1827.9568880014001</v>
+      </c>
+      <c r="D110" s="1">
+        <v>27.095263567446601</v>
+      </c>
+      <c r="E110">
+        <v>4030</v>
+      </c>
+      <c r="F110" s="16">
+        <v>1751.85765182566</v>
+      </c>
+      <c r="G110">
+        <v>1904.05612417713</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1749.2452311612501</v>
+      </c>
+      <c r="D111" s="1">
+        <v>27.8926427048157</v>
+      </c>
+      <c r="E111">
+        <v>4030</v>
+      </c>
+      <c r="F111" s="16">
+        <v>1670.90649127502</v>
+      </c>
+      <c r="G111">
+        <v>1827.58397104748</v>
+      </c>
+      <c r="H111" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="6">
+        <v>149.53254620834099</v>
+      </c>
+      <c r="D112" s="6">
+        <v>19.3493418863209</v>
+      </c>
+      <c r="E112" s="2">
+        <v>4030</v>
+      </c>
+      <c r="F112" s="17">
+        <v>95.188356701315897</v>
+      </c>
+      <c r="G112" s="2">
+        <v>203.87673571536601</v>
+      </c>
+      <c r="H112" s="17">
+        <v>2.6881694537017599E-8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="56">
+        <v>300.50937865755498</v>
+      </c>
+      <c r="D113" s="56">
+        <v>30.516304364119598</v>
+      </c>
+      <c r="E113" s="51">
+        <v>4030</v>
+      </c>
+      <c r="F113" s="51">
+        <v>214.801873091684</v>
+      </c>
+      <c r="G113" s="51">
+        <v>386.21688422342498</v>
+      </c>
+      <c r="H113" s="52">
+        <v>2.68816225945656E-8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="57">
+        <v>379.22103549770401</v>
+      </c>
+      <c r="D114" s="56">
+        <v>31.623306395223199</v>
+      </c>
+      <c r="E114" s="51">
+        <v>4030</v>
+      </c>
+      <c r="F114" s="51">
+        <v>290.40442531647301</v>
+      </c>
+      <c r="G114" s="51">
+        <v>468.03764567893501</v>
+      </c>
+      <c r="H114" s="55">
+        <v>2.6881583403692801E-8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="56">
+        <v>150.97683244921399</v>
+      </c>
+      <c r="D115" s="56">
+        <v>30.527136975646702</v>
+      </c>
+      <c r="E115" s="51">
+        <v>4030</v>
+      </c>
+      <c r="F115" s="51">
+        <v>65.238902618934503</v>
+      </c>
+      <c r="G115" s="51">
+        <v>236.71476227949299</v>
+      </c>
+      <c r="H115" s="52">
+        <v>4.7348925935608602E-6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="57">
+        <v>229.68848928936299</v>
+      </c>
+      <c r="D116" s="56">
+        <v>31.106687790891399</v>
+      </c>
+      <c r="E116" s="51">
+        <v>4030</v>
+      </c>
+      <c r="F116" s="51">
+        <v>142.32284418495999</v>
+      </c>
+      <c r="G116" s="51">
+        <v>317.05413439376599</v>
+      </c>
+      <c r="H116" s="55">
+        <v>2.6882725157051401E-8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="58">
+        <v>78.711656840149303</v>
+      </c>
+      <c r="D117" s="4">
+        <v>37.151417083916598</v>
+      </c>
+      <c r="E117" s="3">
+        <v>4030</v>
+      </c>
+      <c r="F117" s="3">
+        <v>-25.631098708049102</v>
+      </c>
+      <c r="G117" s="3">
+        <v>183.054412388348</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0.14728034949558899</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>61</v>
+      </c>
+      <c r="D124" t="s">
+        <v>62</v>
+      </c>
+      <c r="E124" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125">
+        <v>709833089.27832401</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>2137.99822561173</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>9162173.4489710294</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>9.1987402261765201</v>
+      </c>
+      <c r="F126" s="16">
+        <v>4.6120846967502999E-6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127">
+        <v>19112705.601948999</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>57.5669566280026</v>
+      </c>
+      <c r="F127" s="16">
+        <v>4.0327700314543797E-14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128">
+        <v>97742726.029083699</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>294.39846912334701</v>
+      </c>
+      <c r="F128" s="16">
+        <v>9.5645833220882601E-64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129">
+        <v>47068280.693823799</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>141.76839897433001</v>
+      </c>
+      <c r="F129" s="16">
+        <v>3.7592943636252998E-32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130">
+        <v>339374647.087915</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1022.1873342496</v>
+      </c>
+      <c r="F130" s="16">
+        <v>4.2111066516711199E-200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131">
+        <v>1337993322.6900401</v>
+      </c>
+      <c r="D131">
+        <v>4030</v>
+      </c>
+      <c r="E131" t="s">
+        <v>69</v>
+      </c>
+      <c r="F131" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1977.15672849103</v>
+      </c>
+      <c r="D134" s="1">
+        <v>13.6563338055635</v>
+      </c>
+      <c r="E134">
+        <v>4030</v>
+      </c>
+      <c r="F134">
+        <v>1938.80181199512</v>
+      </c>
+      <c r="G134">
+        <v>2015.5116449869499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2020.70670468556</v>
+      </c>
+      <c r="D135" s="1">
+        <v>16.4368928850663</v>
+      </c>
+      <c r="E135">
+        <v>4030</v>
+      </c>
+      <c r="F135">
+        <v>1974.54236343299</v>
+      </c>
+      <c r="G135">
+        <v>2066.87104593813</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2088.00107638999</v>
+      </c>
+      <c r="D136" s="1">
+        <v>30.334330472387201</v>
+      </c>
+      <c r="E136">
+        <v>4030</v>
+      </c>
+      <c r="F136">
+        <v>2002.80465919683</v>
+      </c>
+      <c r="G136">
+        <v>2173.1974935831499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2151.7802221952802</v>
+      </c>
+      <c r="D137" s="1">
+        <v>31.174938955120801</v>
+      </c>
+      <c r="E137">
+        <v>4030</v>
+      </c>
+      <c r="F137">
+        <v>2064.2228881835799</v>
+      </c>
+      <c r="G137">
+        <v>2239.33755620697</v>
+      </c>
+      <c r="H137" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="6">
+        <v>-43.549976194526202</v>
+      </c>
+      <c r="D138" s="6">
+        <v>21.7272074469534</v>
+      </c>
+      <c r="E138" s="2">
+        <v>4030</v>
+      </c>
+      <c r="F138" s="2">
+        <v>-104.572593185465</v>
+      </c>
+      <c r="G138" s="2">
+        <v>17.472640796412499</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.186446366606354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="56">
+        <v>-110.844347898954</v>
+      </c>
+      <c r="D139" s="56">
+        <v>34.333387241538297</v>
+      </c>
+      <c r="E139" s="51">
+        <v>4030</v>
+      </c>
+      <c r="F139" s="51">
+        <v>-207.27243902650201</v>
+      </c>
+      <c r="G139" s="51">
+        <v>-14.4162567714051</v>
+      </c>
+      <c r="H139" s="51">
+        <v>6.8741851637872404E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="57">
+        <v>-174.62349370423999</v>
+      </c>
+      <c r="D140" s="56">
+        <v>35.526052067048802</v>
+      </c>
+      <c r="E140" s="51">
+        <v>4030</v>
+      </c>
+      <c r="F140" s="51">
+        <v>-274.40128032410502</v>
+      </c>
+      <c r="G140" s="51">
+        <v>-74.845707084375107</v>
+      </c>
+      <c r="H140" s="52">
+        <v>5.5176291592351498E-6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="56">
+        <v>-67.294371704427306</v>
+      </c>
+      <c r="D141" s="56">
+        <v>34.100185727058303</v>
+      </c>
+      <c r="E141" s="51">
+        <v>4030</v>
+      </c>
+      <c r="F141" s="51">
+        <v>-163.06749754319799</v>
+      </c>
+      <c r="G141" s="51">
+        <v>28.478754134343699</v>
+      </c>
+      <c r="H141" s="51">
+        <v>0.19821917733491001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="56">
+        <v>-131.07351750971401</v>
+      </c>
+      <c r="D142" s="56">
+        <v>34.695239645989197</v>
+      </c>
+      <c r="E142" s="51">
+        <v>4030</v>
+      </c>
+      <c r="F142" s="51">
+        <v>-228.51790034147601</v>
+      </c>
+      <c r="G142" s="51">
+        <v>-33.6291346779525</v>
+      </c>
+      <c r="H142" s="51">
+        <v>9.2258547335033502E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="4">
+        <v>-63.779145805286703</v>
+      </c>
+      <c r="D143" s="4">
+        <v>41.407049675645197</v>
+      </c>
+      <c r="E143" s="3">
+        <v>4030</v>
+      </c>
+      <c r="F143" s="3">
+        <v>-180.07418920884999</v>
+      </c>
+      <c r="G143" s="3">
+        <v>52.515897598276602</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0.413414621546289</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/eg_data/NHANES/PF/10_KCAL means.xlsx
+++ b/eg_data/NHANES/PF/10_KCAL means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7F726-C7ED-4AE6-849A-348AD4A489BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC35A3-B1EB-47F2-90B9-68FC7CE7D696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32775" yWindow="-3270" windowWidth="15615" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35895" yWindow="-3180" windowWidth="12825" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCAL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="77">
   <si>
     <t>Plain means</t>
   </si>
@@ -162,9 +162,6 @@
     <t>DivGroup has an effect (p=9.7x10-11)</t>
   </si>
   <si>
-    <t>contrasts.p.value</t>
-  </si>
-  <si>
     <t>PF_TOTAL_LEG is different among DivGroups (p&lt; 2.2e-16 ***)</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>When KCAL is the response, I don't quite understand the meaning of adjusting it by FiBE/1000kcal…?</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -531,13 +531,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4298,13 +4292,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4397,6 +4392,9 @@
       <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="H12" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4420,6 +4418,9 @@
       <c r="G13">
         <v>1991.8248924572299</v>
       </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4443,6 +4444,9 @@
       <c r="G14">
         <v>2077.44896127639</v>
       </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4466,6 +4470,9 @@
       <c r="G15">
         <v>2220.0712639602102</v>
       </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4490,7 +4497,7 @@
         <v>2293.91006057802</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4686,6 +4693,9 @@
       <c r="G31" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="H31" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -4709,6 +4719,9 @@
       <c r="G32" s="2">
         <v>1983.57681210338</v>
       </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4732,6 +4745,9 @@
       <c r="G33">
         <v>2101.30892712288</v>
       </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4755,6 +4771,9 @@
       <c r="G34">
         <v>2248.6840474932201</v>
       </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -4779,7 +4798,7 @@
         <v>2323.01045676788</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5015,6 +5034,9 @@
       <c r="G53" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="H53" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -5038,6 +5060,9 @@
       <c r="G54">
         <v>2125.06113719627</v>
       </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5061,6 +5086,9 @@
       <c r="G55">
         <v>2049.7183273917699</v>
       </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -5084,6 +5112,9 @@
       <c r="G56">
         <v>1983.3772464814199</v>
       </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -5108,7 +5139,7 @@
         <v>1922.62379727028</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5319,12 +5350,12 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5349,7 +5380,9 @@
       <c r="G75" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
@@ -5373,7 +5406,9 @@
       <c r="G76" s="7">
         <v>2061.04096864744</v>
       </c>
-      <c r="H76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
@@ -5397,7 +5432,9 @@
       <c r="G77" s="7">
         <v>2054.0578059889399</v>
       </c>
-      <c r="H77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
@@ -5421,7 +5458,9 @@
       <c r="G78" s="7">
         <v>2094.8736063977599</v>
       </c>
-      <c r="H78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
@@ -5446,7 +5485,7 @@
         <v>2121.6587239481701</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5687,7 +5726,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -5697,36 +5736,36 @@
     </row>
     <row r="95" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" t="s">
         <v>61</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>62</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>63</v>
-      </c>
-      <c r="E98" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C99">
         <v>373179779.51554</v>
@@ -5760,7 +5799,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C101">
         <v>30579869.1270709</v>
@@ -5777,7 +5816,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C102">
         <v>63249633.913745403</v>
@@ -5828,7 +5867,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C105">
         <v>1075693974.91453</v>
@@ -5837,10 +5876,10 @@
         <v>4030</v>
       </c>
       <c r="E105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -5865,7 +5904,9 @@
       <c r="G107" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H107" s="5"/>
+      <c r="H107" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -5889,6 +5930,9 @@
       <c r="G108">
         <v>2162.5364171122101</v>
       </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -5912,6 +5956,9 @@
       <c r="G109">
         <v>2020.29366193735</v>
       </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -5935,6 +5982,9 @@
       <c r="G110">
         <v>1904.05612417713</v>
       </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -5959,7 +6009,7 @@
         <v>1827.58397104748</v>
       </c>
       <c r="H111" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5989,106 +6039,106 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="51" t="s">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" t="s">
         <v>15</v>
       </c>
-      <c r="C113" s="56">
+      <c r="C113" s="1">
         <v>300.50937865755498</v>
       </c>
-      <c r="D113" s="56">
+      <c r="D113" s="1">
         <v>30.516304364119598</v>
       </c>
-      <c r="E113" s="51">
+      <c r="E113">
         <v>4030</v>
       </c>
-      <c r="F113" s="51">
+      <c r="F113">
         <v>214.801873091684</v>
       </c>
-      <c r="G113" s="51">
+      <c r="G113">
         <v>386.21688422342498</v>
       </c>
-      <c r="H113" s="52">
+      <c r="H113" s="16">
         <v>2.68816225945656E-8</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="53" t="s">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="57">
+      <c r="C114" s="23">
         <v>379.22103549770401</v>
       </c>
-      <c r="D114" s="56">
+      <c r="D114" s="1">
         <v>31.623306395223199</v>
       </c>
-      <c r="E114" s="51">
+      <c r="E114">
         <v>4030</v>
       </c>
-      <c r="F114" s="51">
+      <c r="F114">
         <v>290.40442531647301</v>
       </c>
-      <c r="G114" s="51">
+      <c r="G114">
         <v>468.03764567893501</v>
       </c>
-      <c r="H114" s="55">
+      <c r="H114" s="25">
         <v>2.6881583403692801E-8</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="51" t="s">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="56">
+      <c r="C115" s="1">
         <v>150.97683244921399</v>
       </c>
-      <c r="D115" s="56">
+      <c r="D115" s="1">
         <v>30.527136975646702</v>
       </c>
-      <c r="E115" s="51">
+      <c r="E115">
         <v>4030</v>
       </c>
-      <c r="F115" s="51">
+      <c r="F115">
         <v>65.238902618934503</v>
       </c>
-      <c r="G115" s="51">
+      <c r="G115">
         <v>236.71476227949299</v>
       </c>
-      <c r="H115" s="52">
+      <c r="H115" s="16">
         <v>4.7348925935608602E-6</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="53" t="s">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="57">
+      <c r="C116" s="23">
         <v>229.68848928936299</v>
       </c>
-      <c r="D116" s="56">
+      <c r="D116" s="1">
         <v>31.106687790891399</v>
       </c>
-      <c r="E116" s="51">
+      <c r="E116">
         <v>4030</v>
       </c>
-      <c r="F116" s="51">
+      <c r="F116">
         <v>142.32284418495999</v>
       </c>
-      <c r="G116" s="51">
+      <c r="G116">
         <v>317.05413439376599</v>
       </c>
-      <c r="H116" s="55">
+      <c r="H116" s="25">
         <v>2.6882725157051401E-8</v>
       </c>
     </row>
@@ -6096,10 +6146,10 @@
       <c r="A117" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="58">
+      <c r="C117" s="52">
         <v>78.711656840149303</v>
       </c>
       <c r="D117" s="4">
@@ -6120,36 +6170,37 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
+      <c r="B124" s="5"/>
+      <c r="C124" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F124" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C125">
         <v>709833089.27832401</v>
@@ -6183,7 +6234,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C127">
         <v>19112705.601948999</v>
@@ -6200,7 +6251,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C128">
         <v>97742726.029083699</v>
@@ -6217,7 +6268,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C129">
         <v>47068280.693823799</v>
@@ -6250,20 +6301,20 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+      <c r="B131" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="5">
+        <v>1337993322.6900401</v>
+      </c>
+      <c r="D131" s="5">
+        <v>4030</v>
+      </c>
+      <c r="E131" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C131">
-        <v>1337993322.6900401</v>
-      </c>
-      <c r="D131">
-        <v>4030</v>
-      </c>
-      <c r="E131" t="s">
-        <v>69</v>
-      </c>
-      <c r="F131" t="s">
-        <v>69</v>
+      <c r="F131" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -6288,6 +6339,9 @@
       <c r="G133" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="H133" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -6311,6 +6365,9 @@
       <c r="G134">
         <v>2015.5116449869499</v>
       </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -6334,6 +6391,9 @@
       <c r="G135">
         <v>2066.87104593813</v>
       </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -6357,6 +6417,9 @@
       <c r="G136">
         <v>2173.1974935831499</v>
       </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -6381,7 +6444,7 @@
         <v>2239.33755620697</v>
       </c>
       <c r="H137" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -6411,106 +6474,106 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" s="51" t="s">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="56">
+      <c r="C139" s="1">
         <v>-110.844347898954</v>
       </c>
-      <c r="D139" s="56">
+      <c r="D139" s="1">
         <v>34.333387241538297</v>
       </c>
-      <c r="E139" s="51">
+      <c r="E139">
         <v>4030</v>
       </c>
-      <c r="F139" s="51">
+      <c r="F139">
         <v>-207.27243902650201</v>
       </c>
-      <c r="G139" s="51">
+      <c r="G139">
         <v>-14.4162567714051</v>
       </c>
-      <c r="H139" s="51">
+      <c r="H139">
         <v>6.8741851637872404E-3</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" s="53" t="s">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="57">
+      <c r="C140" s="23">
         <v>-174.62349370423999</v>
       </c>
-      <c r="D140" s="56">
+      <c r="D140" s="1">
         <v>35.526052067048802</v>
       </c>
-      <c r="E140" s="51">
+      <c r="E140">
         <v>4030</v>
       </c>
-      <c r="F140" s="51">
+      <c r="F140">
         <v>-274.40128032410502</v>
       </c>
-      <c r="G140" s="51">
+      <c r="G140">
         <v>-74.845707084375107</v>
       </c>
-      <c r="H140" s="52">
+      <c r="H140" s="16">
         <v>5.5176291592351498E-6</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="51" t="s">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" t="s">
         <v>17</v>
       </c>
-      <c r="C141" s="56">
+      <c r="C141" s="1">
         <v>-67.294371704427306</v>
       </c>
-      <c r="D141" s="56">
+      <c r="D141" s="1">
         <v>34.100185727058303</v>
       </c>
-      <c r="E141" s="51">
+      <c r="E141">
         <v>4030</v>
       </c>
-      <c r="F141" s="51">
+      <c r="F141">
         <v>-163.06749754319799</v>
       </c>
-      <c r="G141" s="51">
+      <c r="G141">
         <v>28.478754134343699</v>
       </c>
-      <c r="H141" s="51">
+      <c r="H141">
         <v>0.19821917733491001</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" s="51" t="s">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
         <v>18</v>
       </c>
-      <c r="C142" s="56">
+      <c r="C142" s="1">
         <v>-131.07351750971401</v>
       </c>
-      <c r="D142" s="56">
+      <c r="D142" s="1">
         <v>34.695239645989197</v>
       </c>
-      <c r="E142" s="51">
+      <c r="E142">
         <v>4030</v>
       </c>
-      <c r="F142" s="51">
+      <c r="F142">
         <v>-228.51790034147601</v>
       </c>
-      <c r="G142" s="51">
+      <c r="G142">
         <v>-33.6291346779525</v>
       </c>
-      <c r="H142" s="51">
+      <c r="H142">
         <v>9.2258547335033502E-4</v>
       </c>
     </row>
@@ -6542,12 +6605,12 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6631,7 +6694,7 @@
         <v>33</v>
       </c>
       <c r="Q18" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R18" s="31"/>
       <c r="S18" s="31"/>
@@ -6652,22 +6715,22 @@
         <v>32</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="46" t="s">
         <v>5</v>
       </c>
       <c r="R19" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="S19" s="28" t="s">
+      <c r="T19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="T19" s="28" t="s">
+      <c r="U19" s="32" t="s">
         <v>50</v>
-      </c>
-      <c r="U19" s="32" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -6808,7 +6871,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="27">
         <f>AVERAGE(B20:B23)</f>
@@ -6824,7 +6887,7 @@
       </c>
       <c r="E24" s="28"/>
       <c r="Q24" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R24" s="28">
         <f>SUM(R20:R23)</f>
@@ -6845,7 +6908,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <f>B20-B23</f>
@@ -6862,12 +6925,12 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q26" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="5" t="s">
         <v>5</v>
@@ -6876,22 +6939,22 @@
         <v>30</v>
       </c>
       <c r="S27" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="U27" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W27" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -6899,13 +6962,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="D28" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="Q28" t="s">
         <v>1</v>
@@ -7060,7 +7123,7 @@
         <v>793.48390580343198</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R32" s="27">
         <v>1656.01783606801</v>
@@ -7094,10 +7157,10 @@
         <v>37</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q35" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -7121,16 +7184,16 @@
         <v>5</v>
       </c>
       <c r="R36" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="S36" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="S36" s="28" t="s">
+      <c r="T36" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="T36" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="U36" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -7237,7 +7300,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="27">
         <f>AVERAGE(B36:B39)</f>
@@ -7271,7 +7334,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <f>B36-B39</f>
@@ -7286,7 +7349,7 @@
         <v>222.04182821009999</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R41" s="28">
         <f>SUM(R37:R40)</f>
@@ -7307,10 +7370,10 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q43" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -7318,13 +7381,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="D44" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>54</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>5</v>
@@ -7333,22 +7396,22 @@
         <v>35</v>
       </c>
       <c r="S44" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T44" s="5" t="s">
         <v>36</v>
       </c>
       <c r="U44" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V44" s="5" t="s">
         <v>37</v>
       </c>
       <c r="W44" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X44" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -7505,7 +7568,7 @@
     </row>
     <row r="49" spans="17:23" x14ac:dyDescent="0.25">
       <c r="Q49" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R49" s="27">
         <v>1457.8072213307776</v>

--- a/eg_data/NHANES/PF/10_KCAL means.xlsx
+++ b/eg_data/NHANES/PF/10_KCAL means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC35A3-B1EB-47F2-90B9-68FC7CE7D696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA2E064-AD74-4B8B-835C-E333878494F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35895" yWindow="-3180" windowWidth="12825" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24810" yWindow="-3210" windowWidth="20190" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCAL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="79">
   <si>
     <t>Plain means</t>
   </si>
@@ -216,9 +216,6 @@
     <t>DivGroup, Age, Gender, FIBE, PF</t>
   </si>
   <si>
-    <t>lm.kcal.agfp &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + FIBE + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
     <t>Sum Sq</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>FIBE1000kcal</t>
   </si>
   <si>
-    <t>lm.kcal.ag1000fp &lt;-    lm( KCAL ~ DivGroup + RIDAGEYR + Gender + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
     <t>The more diverse, the more kcal intake!</t>
   </si>
   <si>
@@ -268,6 +262,18 @@
   </si>
   <si>
     <t>p-value</t>
+  </si>
+  <si>
+    <t>PF_ALL</t>
+  </si>
+  <si>
+    <t>lm.kcal.agfp &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + FIBE + PF_ALL, data=df)</t>
+  </si>
+  <si>
+    <t>lm.kcal.ag1000fp &lt;-    lm( KCAL ~ DivGroup + RIDAGEYR + Gender + FIBE1000kcal + PF_ALL, data=df)</t>
+  </si>
+  <si>
+    <t>FIBE/1000kcal</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -533,6 +539,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3659,8 +3678,8 @@
       <xdr:rowOff>171161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>300575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>376775</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>151709</xdr:rowOff>
     </xdr:to>
@@ -3703,8 +3722,8 @@
       <xdr:rowOff>37234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>519949</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>548524</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>103520</xdr:rowOff>
     </xdr:to>
@@ -4290,17 +4309,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" topLeftCell="J124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V135" sqref="V135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4393,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4694,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5035,7 +5059,7 @@
         <v>12</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5381,7 +5405,7 @@
         <v>12</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5741,31 +5765,31 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" t="s">
         <v>60</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>61</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>62</v>
-      </c>
-      <c r="E98" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C99">
         <v>373179779.51554</v>
@@ -5799,7 +5823,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101">
         <v>30579869.1270709</v>
@@ -5816,7 +5840,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C102">
         <v>63249633.913745403</v>
@@ -5850,7 +5874,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C104">
         <v>222657032.56821701</v>
@@ -5867,7 +5891,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C105">
         <v>1075693974.91453</v>
@@ -5876,10 +5900,10 @@
         <v>4030</v>
       </c>
       <c r="E105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -5905,7 +5929,7 @@
         <v>12</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -5924,10 +5948,10 @@
       <c r="E108">
         <v>4030</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="55">
         <v>2094.3961162056899</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="55">
         <v>2162.5364171122101</v>
       </c>
       <c r="H108" t="s">
@@ -5950,10 +5974,10 @@
       <c r="E109">
         <v>4030</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="55">
         <v>1937.5737789638699</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="55">
         <v>2020.29366193735</v>
       </c>
       <c r="H109" t="s">
@@ -5976,10 +6000,10 @@
       <c r="E110">
         <v>4030</v>
       </c>
-      <c r="F110" s="16">
+      <c r="F110" s="55">
         <v>1751.85765182566</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="55">
         <v>1904.05612417713</v>
       </c>
       <c r="H110" t="s">
@@ -6002,10 +6026,10 @@
       <c r="E111">
         <v>4030</v>
       </c>
-      <c r="F111" s="16">
+      <c r="F111" s="55">
         <v>1670.90649127502</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="55">
         <v>1827.58397104748</v>
       </c>
       <c r="H111" t="s">
@@ -6028,17 +6052,17 @@
       <c r="E112" s="2">
         <v>4030</v>
       </c>
-      <c r="F112" s="17">
+      <c r="F112" s="56">
         <v>95.188356701315897</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="56">
         <v>203.87673571536601</v>
       </c>
       <c r="H112" s="17">
         <v>2.6881694537017599E-8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -6054,17 +6078,17 @@
       <c r="E113">
         <v>4030</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="55">
         <v>214.801873091684</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="55">
         <v>386.21688422342498</v>
       </c>
       <c r="H113" s="16">
         <v>2.68816225945656E-8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -6080,17 +6104,17 @@
       <c r="E114">
         <v>4030</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="55">
         <v>290.40442531647301</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="55">
         <v>468.03764567893501</v>
       </c>
       <c r="H114" s="25">
         <v>2.6881583403692801E-8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -6106,17 +6130,17 @@
       <c r="E115">
         <v>4030</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="55">
         <v>65.238902618934503</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="55">
         <v>236.71476227949299</v>
       </c>
       <c r="H115" s="16">
         <v>4.7348925935608602E-6</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -6132,17 +6156,17 @@
       <c r="E116">
         <v>4030</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="55">
         <v>142.32284418495999</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="55">
         <v>317.05413439376599</v>
       </c>
       <c r="H116" s="25">
         <v>2.6882725157051401E-8</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>13</v>
       </c>
@@ -6158,49 +6182,62 @@
       <c r="E117" s="3">
         <v>4030</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="58">
         <v>-25.631098708049102</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" s="58">
         <v>183.054412388348</v>
       </c>
       <c r="H117" s="3">
         <v>0.14728034949558899</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="C124" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="F124" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="K124" s="5"/>
+      <c r="L124" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>64</v>
       </c>
       <c r="C125">
         <v>709833089.27832401</v>
@@ -6214,8 +6251,24 @@
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K125" t="s">
+        <v>63</v>
+      </c>
+      <c r="L125" s="1">
+        <v>709833089.27832401</v>
+      </c>
+      <c r="M125" s="31">
+        <v>1</v>
+      </c>
+      <c r="N125" s="53">
+        <v>2137.99822561173</v>
+      </c>
+      <c r="O125" s="31" t="str">
+        <f t="shared" ref="O125:O131" si="0">IF(F125&lt;0.0001,"&lt;0.0001",IF(F125&lt;0.001,"&lt;0.001",IF(F125&lt;0.01,"&lt;0.01",ROUND(F125,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>5</v>
       </c>
@@ -6231,10 +6284,26 @@
       <c r="F126" s="16">
         <v>4.6120846967502999E-6</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K126" t="s">
+        <v>5</v>
+      </c>
+      <c r="L126" s="1">
+        <v>9162173.4489710294</v>
+      </c>
+      <c r="M126" s="31">
+        <v>3</v>
+      </c>
+      <c r="N126" s="53">
+        <v>9.1987402261765201</v>
+      </c>
+      <c r="O126" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C127">
         <v>19112705.601948999</v>
@@ -6248,10 +6317,26 @@
       <c r="F127" s="16">
         <v>4.0327700314543797E-14</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K127" t="s">
+        <v>64</v>
+      </c>
+      <c r="L127" s="1">
+        <v>19112705.601948999</v>
+      </c>
+      <c r="M127" s="31">
+        <v>1</v>
+      </c>
+      <c r="N127" s="53">
+        <v>57.5669566280026</v>
+      </c>
+      <c r="O127" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C128">
         <v>97742726.029083699</v>
@@ -6265,10 +6350,26 @@
       <c r="F128" s="16">
         <v>9.5645833220882601E-64</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L128" s="1">
+        <v>97742726.029083699</v>
+      </c>
+      <c r="M128" s="31">
+        <v>1</v>
+      </c>
+      <c r="N128" s="53">
+        <v>294.39846912334701</v>
+      </c>
+      <c r="O128" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C129">
         <v>47068280.693823799</v>
@@ -6282,10 +6383,26 @@
       <c r="F129" s="16">
         <v>3.7592943636252998E-32</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K129" t="s">
+        <v>78</v>
+      </c>
+      <c r="L129" s="1">
+        <v>47068280.693823799</v>
+      </c>
+      <c r="M129" s="31">
+        <v>1</v>
+      </c>
+      <c r="N129" s="53">
+        <v>141.76839897433001</v>
+      </c>
+      <c r="O129" s="31" t="str">
+        <f>IF(F129&lt;0.0001,"&lt;0.0001",IF(F129&lt;0.001,"&lt;0.001",IF(F129&lt;0.01,"&lt;0.01",ROUND(F129,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C130">
         <v>339374647.087915</v>
@@ -6299,10 +6416,26 @@
       <c r="F130" s="16">
         <v>4.2111066516711199E-200</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K130" t="s">
+        <v>75</v>
+      </c>
+      <c r="L130" s="1">
+        <v>339374647.087915</v>
+      </c>
+      <c r="M130" s="31">
+        <v>1</v>
+      </c>
+      <c r="N130" s="53">
+        <v>1022.1873342496</v>
+      </c>
+      <c r="O130" s="31" t="str">
+        <f>IF(F130&lt;0.0001,"&lt;0.0001",IF(F130&lt;0.001,"&lt;0.001",IF(F130&lt;0.01,"&lt;0.01",ROUND(F130,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C131" s="5">
         <v>1337993322.6900401</v>
@@ -6311,13 +6444,28 @@
         <v>4030</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L131" s="54">
+        <v>1337993322.6900401</v>
+      </c>
+      <c r="M131" s="5">
+        <v>4030</v>
+      </c>
+      <c r="N131" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="O131" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>5</v>
       </c>
@@ -6340,10 +6488,34 @@
         <v>12</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P133" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q133" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -6368,8 +6540,32 @@
       <c r="H134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>13</v>
+      </c>
+      <c r="L134" s="1">
+        <v>1977.15672849103</v>
+      </c>
+      <c r="M134" s="1">
+        <v>13.6563338055635</v>
+      </c>
+      <c r="N134">
+        <v>4030</v>
+      </c>
+      <c r="O134" s="1">
+        <v>1938.80181199512</v>
+      </c>
+      <c r="P134" s="1">
+        <v>2015.5116449869499</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -6394,8 +6590,32 @@
       <c r="H135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>2</v>
+      </c>
+      <c r="K135" t="s">
+        <v>13</v>
+      </c>
+      <c r="L135" s="1">
+        <v>2020.70670468556</v>
+      </c>
+      <c r="M135" s="1">
+        <v>16.4368928850663</v>
+      </c>
+      <c r="N135">
+        <v>4030</v>
+      </c>
+      <c r="O135" s="1">
+        <v>1974.54236343299</v>
+      </c>
+      <c r="P135" s="1">
+        <v>2066.87104593813</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -6420,8 +6640,32 @@
       <c r="H136" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>3</v>
+      </c>
+      <c r="K136" t="s">
+        <v>13</v>
+      </c>
+      <c r="L136" s="1">
+        <v>2088.00107638999</v>
+      </c>
+      <c r="M136" s="1">
+        <v>30.334330472387201</v>
+      </c>
+      <c r="N136">
+        <v>4030</v>
+      </c>
+      <c r="O136" s="1">
+        <v>2002.80465919683</v>
+      </c>
+      <c r="P136" s="1">
+        <v>2173.1974935831499</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -6446,8 +6690,32 @@
       <c r="H137" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>4</v>
+      </c>
+      <c r="K137" t="s">
+        <v>13</v>
+      </c>
+      <c r="L137" s="1">
+        <v>2151.7802221952802</v>
+      </c>
+      <c r="M137" s="1">
+        <v>31.174938955120801</v>
+      </c>
+      <c r="N137">
+        <v>4030</v>
+      </c>
+      <c r="O137" s="1">
+        <v>2064.2228881835799</v>
+      </c>
+      <c r="P137" s="1">
+        <v>2239.33755620697</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>13</v>
       </c>
@@ -6472,8 +6740,33 @@
       <c r="H138" s="2">
         <v>0.186446366606354</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" s="6">
+        <v>-43.549976194526202</v>
+      </c>
+      <c r="M138" s="6">
+        <v>21.7272074469534</v>
+      </c>
+      <c r="N138" s="2">
+        <v>4030</v>
+      </c>
+      <c r="O138" s="6">
+        <v>-104.572593185465</v>
+      </c>
+      <c r="P138" s="6">
+        <v>17.472640796412499</v>
+      </c>
+      <c r="Q138" s="57">
+        <f>IF(H138&lt;0.0001,"&lt;0.0001",IF(H138&lt;0.001,"&lt;0.001",IF(H138&lt;0.01,"&lt;0.01",ROUND(H138,3))))</f>
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -6498,8 +6791,33 @@
       <c r="H139">
         <v>6.8741851637872404E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>13</v>
+      </c>
+      <c r="K139" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="L139" s="61">
+        <v>-110.844347898954</v>
+      </c>
+      <c r="M139" s="61">
+        <v>34.333387241538297</v>
+      </c>
+      <c r="N139" s="60">
+        <v>4030</v>
+      </c>
+      <c r="O139" s="1">
+        <v>-207.27243902650201</v>
+      </c>
+      <c r="P139" s="1">
+        <v>-14.4162567714051</v>
+      </c>
+      <c r="Q139" s="31" t="str">
+        <f>IF(H139&lt;0.0001,"&lt;0.0001",IF(H139&lt;0.001,"&lt;0.001",IF(H139&lt;0.01,"&lt;0.01",ROUND(H139,3))))</f>
+        <v>&lt;0.01</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -6524,8 +6842,33 @@
       <c r="H140" s="16">
         <v>5.5176291592351498E-6</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="L140" s="61">
+        <v>-174.62349370423999</v>
+      </c>
+      <c r="M140" s="61">
+        <v>35.526052067048802</v>
+      </c>
+      <c r="N140" s="60">
+        <v>4030</v>
+      </c>
+      <c r="O140" s="1">
+        <v>-274.40128032410502</v>
+      </c>
+      <c r="P140" s="1">
+        <v>-74.845707084375107</v>
+      </c>
+      <c r="Q140" s="31" t="str">
+        <f t="shared" ref="Q139:Q143" si="1">IF(H140&lt;0.0001,"&lt;0.0001",IF(H140&lt;0.001,"&lt;0.001",IF(H140&lt;0.01,"&lt;0.01",ROUND(H140,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -6550,8 +6893,33 @@
       <c r="H141">
         <v>0.19821917733491001</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>13</v>
+      </c>
+      <c r="K141" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L141" s="61">
+        <v>-67.294371704427306</v>
+      </c>
+      <c r="M141" s="61">
+        <v>34.100185727058303</v>
+      </c>
+      <c r="N141" s="60">
+        <v>4030</v>
+      </c>
+      <c r="O141" s="1">
+        <v>-163.06749754319799</v>
+      </c>
+      <c r="P141" s="1">
+        <v>28.478754134343699</v>
+      </c>
+      <c r="Q141" s="31">
+        <f t="shared" si="1"/>
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -6576,8 +6944,33 @@
       <c r="H142">
         <v>9.2258547335033502E-4</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>13</v>
+      </c>
+      <c r="K142" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L142" s="61">
+        <v>-131.07351750971401</v>
+      </c>
+      <c r="M142" s="61">
+        <v>34.695239645989197</v>
+      </c>
+      <c r="N142" s="60">
+        <v>4030</v>
+      </c>
+      <c r="O142" s="1">
+        <v>-228.51790034147601</v>
+      </c>
+      <c r="P142" s="1">
+        <v>-33.6291346779525</v>
+      </c>
+      <c r="Q142" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>13</v>
       </c>
@@ -6602,15 +6995,46 @@
       <c r="H143" s="3">
         <v>0.413414621546289</v>
       </c>
+      <c r="J143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K143" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L143" s="52">
+        <v>-63.779145805286703</v>
+      </c>
+      <c r="M143" s="52">
+        <v>41.407049675645197</v>
+      </c>
+      <c r="N143" s="51">
+        <v>4030</v>
+      </c>
+      <c r="O143" s="4">
+        <v>-180.07418920884999</v>
+      </c>
+      <c r="P143" s="4">
+        <v>52.515897598276602</v>
+      </c>
+      <c r="Q143" s="59">
+        <f>IF(H143&lt;0.0001,"&lt;0.0001",IF(H143&lt;0.001,"&lt;0.001",IF(H143&lt;0.01,"&lt;0.01",ROUND(H143,3))))</f>
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K144" s="60"/>
+      <c r="L144" s="60"/>
+      <c r="M144" s="60"/>
+      <c r="N144" s="60"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6624,8 +7048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F2FA67-EC19-4424-8F70-1DC3E066EC3F}">
   <dimension ref="A2:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18:X49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/eg_data/NHANES/PF/10_KCAL means.xlsx
+++ b/eg_data/NHANES/PF/10_KCAL means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA2E064-AD74-4B8B-835C-E333878494F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C19AB-38E2-4783-9232-A590DCAD2D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24810" yWindow="-3210" windowWidth="20190" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34470" yWindow="-3375" windowWidth="12945" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCAL" sheetId="1" r:id="rId1"/>
@@ -4311,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V135" sqref="V135"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6264,7 +6264,7 @@
         <v>2137.99822561173</v>
       </c>
       <c r="O125" s="31" t="str">
-        <f t="shared" ref="O125:O131" si="0">IF(F125&lt;0.0001,"&lt;0.0001",IF(F125&lt;0.001,"&lt;0.001",IF(F125&lt;0.01,"&lt;0.01",ROUND(F125,3))))</f>
+        <f t="shared" ref="O125:O128" si="0">IF(F125&lt;0.0001,"&lt;0.0001",IF(F125&lt;0.001,"&lt;0.001",IF(F125&lt;0.01,"&lt;0.01",ROUND(F125,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
         <v>-74.845707084375107</v>
       </c>
       <c r="Q140" s="31" t="str">
-        <f t="shared" ref="Q139:Q143" si="1">IF(H140&lt;0.0001,"&lt;0.0001",IF(H140&lt;0.001,"&lt;0.001",IF(H140&lt;0.01,"&lt;0.01",ROUND(H140,3))))</f>
+        <f t="shared" ref="Q140:Q142" si="1">IF(H140&lt;0.0001,"&lt;0.0001",IF(H140&lt;0.001,"&lt;0.001",IF(H140&lt;0.01,"&lt;0.01",ROUND(H140,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>

--- a/eg_data/NHANES/PF/10_KCAL means.xlsx
+++ b/eg_data/NHANES/PF/10_KCAL means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C19AB-38E2-4783-9232-A590DCAD2D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABC272B-E964-447B-A667-4E89B4ED4852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34470" yWindow="-3375" windowWidth="12945" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="615" windowWidth="13500" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCAL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="80">
   <si>
     <t>Plain means</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>FIBE/1000kcal</t>
+  </si>
+  <si>
+    <t>Intake Improves Nutrient Density among US Adult Consumers</t>
   </si>
 </sst>
 </file>
@@ -4309,10 +4312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q146"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:A157"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7035,6 +7038,17 @@
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>LOWER(A153)</f>
+        <v>intake improves nutrient density among us adult consumers</v>
       </c>
     </row>
   </sheetData>

--- a/eg_data/NHANES/PF/10_KCAL means.xlsx
+++ b/eg_data/NHANES/PF/10_KCAL means.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABC272B-E964-447B-A667-4E89B4ED4852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26619361-668C-479D-A528-14BFB3C430E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="615" windowWidth="13500" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCAL" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="80">
   <si>
     <t>Plain means</t>
   </si>
@@ -588,6 +591,331 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26583506859585976"/>
+          <c:y val="6.7276620684465105E-2"/>
+          <c:w val="0.69848926180221127"/>
+          <c:h val="0.76845122306270808"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KCAL!$T$133</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>emmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>KCAL!$M$134:$M$137</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>13.6563338055635</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.4368928850663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30.334330472387201</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>31.174938955120801</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>KCAL!$M$134:$M$137</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>13.6563338055635</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.4368928850663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30.334330472387201</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>31.174938955120801</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>KCAL!$S$134:$S$137</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DivNA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Div0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Div1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Div2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KCAL!$T$134:$T$137</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1977.15672849103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020.70670468556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2088.00107638999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2151.7802221952802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46EE-47B0-903B-DC1BFE466511}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="134"/>
+        <c:overlap val="-45"/>
+        <c:axId val="477875424"/>
+        <c:axId val="477873624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="477875424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477873624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="477873624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477875424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1026,7 +1354,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1568,7 +1896,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2151,19 +2479,59 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3169,6 +3537,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3761,10 +4632,114 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>534459</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>62441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15262AAC-7F9E-471F-824B-3345F7EA2A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>2.55373E-7</cdr:x>
+      <cdr:y>0.01167</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1</cdr:x>
+      <cdr:y>0.89883</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855F7DC9-3DD0-48DB-EA7D-4FA42F8645E7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-1010712" y="1042454"/>
+          <a:ext cx="2413009" cy="391583"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>KCAL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4049,6 +5024,80 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="149">
+          <cell r="T149" t="str">
+            <v>emmean</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="S150" t="str">
+            <v>DivNA</v>
+          </cell>
+          <cell r="T150">
+            <v>29.833039894761601</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="S151" t="str">
+            <v>Div0</v>
+          </cell>
+          <cell r="T151">
+            <v>29.701989237987501</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="S152" t="str">
+            <v>Div1</v>
+          </cell>
+          <cell r="T152">
+            <v>28.923320343383399</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="S153" t="str">
+            <v>Div2</v>
+          </cell>
+          <cell r="T153">
+            <v>27.695775047685299</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="D160">
+            <v>0.165029993120519</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="D161">
+            <v>0.198631664864556</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="D162">
+            <v>0.36657527711677601</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="D163">
+            <v>0.37673361200355499</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4312,10 +5361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q154"/>
+  <dimension ref="A1:T154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" topLeftCell="C120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q140" sqref="K140:Q140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6370,7 +7419,7 @@
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>71</v>
       </c>
@@ -6403,7 +7452,7 @@
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>75</v>
       </c>
@@ -6436,7 +7485,7 @@
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
         <v>66</v>
       </c>
@@ -6468,7 +7517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>5</v>
       </c>
@@ -6517,8 +7566,14 @@
       <c r="Q133" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T133" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -6567,8 +7622,14 @@
       <c r="Q134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S134" t="s">
+        <v>1</v>
+      </c>
+      <c r="T134" s="1">
+        <v>1977.15672849103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -6617,8 +7678,14 @@
       <c r="Q135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S135" t="s">
+        <v>2</v>
+      </c>
+      <c r="T135" s="1">
+        <v>2020.70670468556</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -6667,8 +7734,14 @@
       <c r="Q136" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S136" t="s">
+        <v>3</v>
+      </c>
+      <c r="T136" s="1">
+        <v>2088.00107638999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -6717,8 +7790,14 @@
       <c r="Q137" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S137" t="s">
+        <v>4</v>
+      </c>
+      <c r="T137" s="1">
+        <v>2151.7802221952802</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>13</v>
       </c>
@@ -6769,7 +7848,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -6820,7 +7899,7 @@
         <v>&lt;0.01</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -6871,7 +7950,7 @@
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -6922,7 +8001,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -6973,7 +8052,7 @@
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>13</v>
       </c>
@@ -7024,7 +8103,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K144" s="60"/>
       <c r="L144" s="60"/>
       <c r="M144" s="60"/>
